--- a/Term_Project/data/variables.xlsx
+++ b/Term_Project/data/variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEU\Fall_Term\Github_Repos\Coding_1\Assignment_COVID\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEU\Fall_Term\Github_Repos\Coding_1\Term_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D664A-5962-4855-B7A9-CDB2DC2343D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD2715-C2CC-4183-8400-698CB7CC57E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E821A6E-772B-4D36-B2BF-3329AE93FCB7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -45,24 +45,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>recovered</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
     <t>Data Type in R</t>
   </si>
   <si>
@@ -78,22 +60,70 @@
     <t>Double</t>
   </si>
   <si>
-    <t>Name of the country for which the COVID-19 is collected.</t>
-  </si>
-  <si>
-    <t>Total population in a given country in 2019.</t>
-  </si>
-  <si>
-    <t>Number of confirmed COVID-19 cases in a given country on 15th September 2020.</t>
-  </si>
-  <si>
-    <t>Number of deaths due to COVID-19 in a given country on 15th September 2020.</t>
-  </si>
-  <si>
-    <t>Number of people who have recovered from COVID-19 in a given country on 15th September 2020.</t>
-  </si>
-  <si>
-    <t>Number of people who currently have COVID-19 in a given country on 15th September 2020.</t>
+    <t>race</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>sexual_orientation</t>
+  </si>
+  <si>
+    <t>years_since_award</t>
+  </si>
+  <si>
+    <t>age_at_award</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Name of given Best Actor Awardee.</t>
+  </si>
+  <si>
+    <t>Race of given Best Actor Awardee, equals 1 if race is white, 0 otherwise.</t>
+  </si>
+  <si>
+    <t>Title of movie for which given Best Actor Awardee won the prize.</t>
+  </si>
+  <si>
+    <t>Birthplace of given Best Actor Awardee, equals 1 if US, 0 otherwise.</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Sexual orientation of given Best Actor Awardee, has 4 outcomes.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>The Africa Queen</t>
+  </si>
+  <si>
+    <t>Number of years that have elapsed since given Best Actor Awardee received the award.</t>
+  </si>
+  <si>
+    <t>Age of given Best Actor Awardee at the time of receiving the award.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>straight</t>
   </si>
 </sst>
 </file>
@@ -155,9 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -473,21 +508,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482D1AB6-A5E5-42C7-994D-19453DDEBDE2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" customWidth="1"/>
+    <col min="6" max="6" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,94 +532,156 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Term_Project/data/variables.xlsx
+++ b/Term_Project/data/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEU\Fall_Term\Github_Repos\Coding_1\Term_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD2715-C2CC-4183-8400-698CB7CC57E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846630AB-3A78-407A-8E0F-6237707D7507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E821A6E-772B-4D36-B2BF-3329AE93FCB7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Variable</t>
   </si>
@@ -81,21 +81,12 @@
     <t>age_at_award</t>
   </si>
   <si>
-    <t>Binary</t>
-  </si>
-  <si>
     <t>Name of given Best Actor Awardee.</t>
   </si>
   <si>
-    <t>Race of given Best Actor Awardee, equals 1 if race is white, 0 otherwise.</t>
-  </si>
-  <si>
     <t>Title of movie for which given Best Actor Awardee won the prize.</t>
   </si>
   <si>
-    <t>Birthplace of given Best Actor Awardee, equals 1 if US, 0 otherwise.</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -124,6 +115,18 @@
   </si>
   <si>
     <t>straight</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>Race of given Best Actor Awardee, value is 'white' if race is white, otherwise value is 'not white'.</t>
+  </si>
+  <si>
+    <t>Birthplace of given Best Actor Awardee, value is 'usa' if birthplace is in the US, otherwise value is 'not usa'.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +522,7 @@
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.26953125" customWidth="1"/>
+    <col min="4" max="4" width="89.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.36328125" customWidth="1"/>
     <col min="6" max="6" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -538,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -549,19 +552,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -575,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -595,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -609,19 +612,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -635,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -655,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="F7">
         <v>68</v>
@@ -675,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>53</v>
